--- a/output/fit_clients/fit_round_56.xlsx
+++ b/output/fit_clients/fit_round_56.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8216927425.806811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003289566712297229</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.1600477890302</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9610558981238116</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.1600477890302</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5097289080.246114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005058655172374198</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9697494936410743</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.811769864430389</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.186651679778007</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.811769864430389</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>3980285587.694301</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003280090803654296</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.391098778096683</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9760515331389431</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.391098778096683</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3640973206.910814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004248136517001437</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9000494707735656</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.761303030687287</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.053563898852282</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.761303030687287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6161645478.77152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002669704120369906</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.498813589240084</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8730956527469463</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.498813589240084</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7778826955.023643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008342219138171014</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1777117129756137</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.702289116615419</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.2621090201591574</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.702289116615419</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7669052744.16371</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002816913573428265</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.566956613096939</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.974342614534485</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.566956613096939</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4367668172.604895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004498038696709831</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.52641569150114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9298293927863237</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.52641569150114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3260582352.823499</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005251982490915813</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.926350774381754</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9648266571382887</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.926350774381754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4805165755.718727</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001287715235258513</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.678433859929169</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8018807398578884</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.678433859929169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9366185313.107397</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001349915896922768</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.750635031444582</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.025210479593391</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.750635031444582</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4126363802.248124</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003123543426718517</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.608901746173409</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.034480516898497</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.608901746173409</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8361064896.943818</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00220179813783098</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.238890225775646</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9162224172252946</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.238890225775646</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5217967066.520572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005610265491847552</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.351353532307351</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9976803486720932</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.351353532307351</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5803884155.232686</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.00381486375338341</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.159754983617208</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9249382180948217</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.159754983617208</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6134841033.30912</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003274991868903968</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9743357470586587</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.167253347243407</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.214837314747942</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.167253347243407</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5797665801.192774</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.00113052956310507</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.888989134391311</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9726306933532947</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.888989134391311</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4564676634.554602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001710678267270206</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.84353782585067</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9216630145346605</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.84353782585067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5797432776.374305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009429008520070688</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.59555845065819</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8575094359284928</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.59555845065819</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5715256107.960918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005537358070059843</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9854385171735467</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.806376459022647</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.123311894680145</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.806376459022647</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>3835230161.033394</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005648053633681226</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.941226298027647</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8232994776956195</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.941226298027647</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6955518593.620075</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001854380317617644</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.348518276998961</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8559379230193255</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.348518276998961</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6066313306.813998</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00421736001725543</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.354984318630228</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.013931144789971</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.354984318630228</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5445480755.52469</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00340999282414401</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.494268168336208</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9596308059820137</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.494268168336208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5207832590.986487</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001177648950029978</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.472188150882061</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8260563775515793</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.472188150882061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5611720408.348095</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.004073163261347982</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.757357698780084</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9326027789835314</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.757357698780084</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7589670143.132095</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004227651436969073</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.982251449500412</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.915234158254204</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.982251449500412</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5494438627.131109</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001682293996252164</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.353250171611003</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.002370758702967</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.353250171611003</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7770765025.811129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003611896254033757</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9891434205679598</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.825593485597651</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.176105673255237</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.825593485597651</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6525198114.891288</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003316126052282691</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.80659887131536</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9715521963977303</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.80659887131536</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5005598469.716813</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.000902789874305554</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.535109888607469</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9657641698238373</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.535109888607469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5910080624.502481</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002663171013845289</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.528011707547277</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8716912901099306</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.528011707547277</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7130014899.764428</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004797698223387513</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7664141507150265</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.237852179511183</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8683126449941719</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.237852179511183</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5473681612.960934</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002400528936933253</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.949368823092402</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.939230004104293</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.949368823092402</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7314122201.645696</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002655963552864009</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.24462941868646</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.042779433984513</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.24462941868646</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4593094121.62757</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003672835601478185</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3373537322963716</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.906655546988276</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.6611451287560831</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.906655546988276</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3308113112.402761</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005173493062713223</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.873626872207808</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.922153831557706</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.873626872207808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4821248305.70759</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002146897417997961</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.149944627770997</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8627958336396376</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.149944627770997</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6850627560.138194</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004258875565115648</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.145757459509789</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9982885966499077</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.145757459509789</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5427951468.787171</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.0009750356803114185</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.269011044410261</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9435677062676898</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.269011044410261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6497680526.948932</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005066900631888306</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.853231291049143</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9940342243204662</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.853231291049143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6448255922.3577</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003609465258062368</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.210399490369447</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.941963915893606</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.210399490369447</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5877679539.108538</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001495816219478992</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.853461878872997</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9494910504691435</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.853461878872997</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3968518850.71242</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001178352305486753</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.238258502348569</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9670204340473217</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.238258502348569</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7723060538.371168</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004139032916594314</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.980570895443897</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8429189274316436</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.980570895443897</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8684397748.560272</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002519183464657822</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9218635616409938</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.872604651591164</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.13085245532595</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.872604651591164</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8252405232.248466</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002583595902157561</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.706393874104182</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.244201822602903</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.706393874104182</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4100437158.020393</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004032829644835092</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.772665463258957</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8746490432921865</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.772665463258957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5437439786.527734</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002650738210992574</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.853268281374024</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.055037458633764</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.853268281374024</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4616613071.247946</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004247298440940673</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.708317458798271</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9534696436208173</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.708317458798271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5869486007.942591</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002166512769355108</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8196787851902028</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.888075437159315</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.003440990942271</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.888075437159315</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4484273748.921944</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002578374854704253</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.105802934935237</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9430880338631324</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.105802934935237</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5963921388.770672</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003466382794097489</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.757450038507673</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8671722763853376</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.757450038507673</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8494714039.534785</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004331100915947595</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.631633870159592</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9009047707036627</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.631633870159592</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4347077403.633626</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002049653005687788</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.283732856804444</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9401930408169542</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.283732856804444</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7423873863.034068</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003258283771423528</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.690796838234553</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8188772746680671</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.690796838234553</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4445438125.069961</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002206635887305725</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.409117614770281</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8151760521730841</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.409117614770281</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>8025309751.621362</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004214561270784758</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.053079435768832</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9157284210565496</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.053079435768832</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5955937904.331994</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003944781450395134</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7943304515452353</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.611380068799721</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.95411203148926</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.611380068799721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4527148888.76125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005759780393089153</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.229088194141928</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.946300829540845</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.229088194141928</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6565275675.74396</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002720477536933894</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.53672230722743</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8882094835794012</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.53672230722743</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8597752980.757811</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003833409387547581</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.602758761687952</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9149085501399432</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.602758761687952</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3333537957.626286</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005443223824838741</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.393388048712549</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9247711283950705</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.393388048712549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7201532587.638578</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004966543176536983</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.04351238597844861</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.28801969320058</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.3601257364871976</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.28801969320058</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6372125213.303321</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002754395031223828</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.284321509418631</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9379365183530308</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.284321509418631</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5627214988.573756</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005396971013792023</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.746447930036406</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9172096113850108</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.746447930036406</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7280586563.085748</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002355002417592345</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.600062183769714</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7371694138765066</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.600062183769714</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4802633665.3806</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008382530096255771</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.731243574830846</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.005383077654517</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.731243574830846</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5624159448.846764</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002903469051827087</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.75349582623626</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9348602887414115</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.75349582623626</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3732511407.386542</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003158660238174562</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.611474370665181</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8400334171468552</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.611474370665181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8027037476.649774</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001790480504375834</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.730213772645165</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.050162000879491</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.730213772645165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5117191024.750238</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001129598695101991</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.229403352336892</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.4008918628686366</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.229403352336892</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6280361214.649004</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004887851535029481</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8725566800680437</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.026906503784575</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.075729196178829</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.026906503784575</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8080412728.407644</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004127693528968164</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.816414733759306</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8678719957494312</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.816414733759306</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6980662835.149062</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002990451281623176</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.0008670024848941938</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.72977348597453</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.498507109830739</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.72977348597453</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5732966926.314511</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005321760406877611</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.976413398159355</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.019434833396561</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.976413398159355</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6746654920.457122</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003641101561762275</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.593888183615324</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8992248931223857</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.593888183615324</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7472908331.293501</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002356341489628019</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.859958098722423</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.994178495571679</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.859958098722423</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7210321839.10521</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002142922892692899</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.030528766415963</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9791561753452529</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.030528766415963</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7033904171.514323</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003565802934337337</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.2219141104252334</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.360104966348444</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.4922952702848978</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.360104966348444</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7394703091.67469</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004246340280588913</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9926862357937923</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.812415295141857</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.175886078194716</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.812415295141857</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9237779027.183586</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003356737562956917</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.280504130226439</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8069708557928902</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.280504130226439</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7406206468.642699</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005126054040802399</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.530480944371194</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.946300829540845</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.530480944371194</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5758540547.403565</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003118363147433557</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.422444444044675</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8975418714162102</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.422444444044675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5545826116.388424</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002545814659658616</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.101057483117812</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.001015588198526</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.101057483117812</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5098036569.284985</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001376645281328188</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.1629969753409276</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.277671038886814</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-0.1549510730685925</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.277671038886814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9193148379.037491</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003987645742839581</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.88884142886312</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8578697846789255</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.88884142886312</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6557091218.121714</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003317038533868837</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.060973403592564</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9560012092894771</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.060973403592564</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5478848266.095358</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00242274699665092</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.020198856289751</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9630978213450904</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.020198856289751</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5753808425.984119</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003804813691601779</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8870908564621763</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.525643686099107</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.015200603188366</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.525643686099107</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5452402339.751305</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002692947006286403</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.164357656327489</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.058483964719837</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.164357656327489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6785674224.823604</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001539569992727354</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.750585048241998</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9257612104352442</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.750585048241998</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5217717389.593486</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00152193869837442</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.98955248843858</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.050151418914748</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.98955248843858</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6182978287.53819</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002181714028076694</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.367936136416054</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9485257382314731</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.367936136416054</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9970134093.59157</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002943776139248182</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.532684840455607</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9185443836903818</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.532684840455607</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6593821982.938467</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004829867108837003</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.096573453441239</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9012354382694499</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.096573453441239</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7472652475.826664</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004577980406123778</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.064716508648396</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.891607582769288</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.064716508648396</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3508670179.057317</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004415208845095891</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.781935945272828</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9107615213291358</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.781935945272828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4776276618.43041</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002247090755720489</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.365737751121461</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.861912721272759</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.365737751121461</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6816677576.144697</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001259919509354063</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6408846645065883</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.925235819580661</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8830878180132636</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.925235819580661</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_56.xlsx
+++ b/output/fit_clients/fit_round_56.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8216927425.806811</v>
+        <v>1650947612.576543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003289566712297229</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.07743880426841475</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03905901711353026</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>825473754.8679237</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5097289080.246114</v>
+        <v>2532794921.878812</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005058655172374198</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.160793496150993</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04487985823064853</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1266397583.394028</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3980285587.694301</v>
+        <v>5138941765.613554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003280090803654296</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
+        <v>0.1531228727148798</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02374441931044611</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2569470977.550818</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3640973206.910814</v>
+        <v>3530979991.256471</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004248136517001437</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07460700222303505</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03468946629344882</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1765490030.243028</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6161645478.77152</v>
+        <v>2113876460.557506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002669704120369906</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
+        <v>0.0933872212338069</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04026381204615011</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1056938247.410362</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7778826955.023643</v>
+        <v>3074801645.081425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008342219138171014</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.08559748010364958</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0430802510583668</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1537400780.112439</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7669052744.16371</v>
+        <v>3674188862.679904</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002816913573428265</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.2164588381391527</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0231978383357565</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1837094557.645422</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4367668172.604895</v>
+        <v>2155835758.035184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004498038696709831</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>18</v>
+        <v>0.1521415882799552</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02926339104873473</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1077917883.851456</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3260582352.823499</v>
+        <v>4118663881.146343</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005251982490915813</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1522630823259272</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05176231515074269</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2059331971.54119</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3713282000.451554</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1256452886708392</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04565208721871974</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4805165755.718727</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001287715235258513</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1856640992.803313</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9366185313.107397</v>
+        <v>2222879839.867928</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001349915896922768</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16</v>
+        <v>0.1466133313378771</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04429581557142008</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1111439866.656131</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4126363802.248124</v>
+        <v>4928015280.391376</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003123543426718517</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
+        <v>0.09458607533146385</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02961121372741133</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2464007647.867481</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8361064896.943818</v>
+        <v>3459367407.958942</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00220179813783098</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
+        <v>0.1747454326229861</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03965285346654895</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1729683704.999486</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5217967066.520572</v>
+        <v>1527947934.327199</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005610265491847552</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+        <v>0.0944231038678507</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04061649083364798</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>763974058.8713534</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5803884155.232686</v>
+        <v>1924441548.716735</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00381486375338341</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17</v>
+        <v>0.08785436671869136</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03445771274126563</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>962220856.4814955</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6134841033.30912</v>
+        <v>4747862661.048655</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003274991868903968</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12</v>
+        <v>0.1436217781385703</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05322301138872824</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2373931328.06885</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5797665801.192774</v>
+        <v>3763883322.288484</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00113052956310507</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
+        <v>0.1825998158609738</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02380384530071574</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1881941635.954685</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4564676634.554602</v>
+        <v>1241209455.468743</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001710678267270206</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1220473313431083</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02145969501965344</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>620604815.5353035</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5797432776.374305</v>
+        <v>1741907506.974703</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009429008520070688</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
+        <v>0.1526416075540356</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02516080828047713</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>870953807.2087491</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5715256107.960918</v>
+        <v>2576388511.772116</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005537358070059843</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
+        <v>0.06253976132680056</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03335217398265195</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1288194236.641037</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3835230161.033394</v>
+        <v>3847859757.674811</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005648053633681226</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1181038558542714</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04359353218996808</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1923929889.470038</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6955518593.620075</v>
+        <v>1238001994.516741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001854380317617644</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
+        <v>0.1452808422180721</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03912245808113109</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>619001027.2179024</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6066313306.813998</v>
+        <v>3783823973.664797</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00421736001725543</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15</v>
+        <v>0.1194965216921996</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02723466742739161</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1891911969.193104</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5445480755.52469</v>
+        <v>1171734082.159655</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00340999282414401</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>12</v>
+        <v>0.1175008447145955</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03063332195567291</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>585867065.4314507</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5207832590.986487</v>
+        <v>896338658.5734218</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001177648950029978</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08399098536599144</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0354291749145668</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>448169275.8114337</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5611720408.348095</v>
+        <v>3449179570.9166</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004073163261347982</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1347528073656858</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02207608561196236</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1724589822.837273</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7589670143.132095</v>
+        <v>3188803703.495801</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004227651436969073</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>14</v>
+        <v>0.09973832502104828</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04888631653532009</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1594401879.260419</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5494438627.131109</v>
+        <v>4014818912.838655</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001682293996252164</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>14</v>
+        <v>0.1170812684869672</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03289060435021999</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2007409472.143306</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7770765025.811129</v>
+        <v>2003935799.564737</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003611896254033757</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>18</v>
+        <v>0.1307060139858851</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03787526618386905</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1001967937.547849</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6525198114.891288</v>
+        <v>1004666546.885258</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003316126052282691</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>11</v>
+        <v>0.09131890918584129</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03978587363321322</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>502333270.7282335</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5005598469.716813</v>
+        <v>1257508639.914072</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000902789874305554</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1093307571220598</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02485766728263577</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>628754337.9335531</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5910080624.502481</v>
+        <v>3033018867.186857</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002663171013845289</v>
-      </c>
-      <c r="G33" t="b">
+        <v>0.1513406003363694</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03826597502105153</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>11</v>
+      <c r="I33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1516509426.270833</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7130014899.764428</v>
+        <v>1098371461.74888</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004797698223387513</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>17</v>
+        <v>0.1177730396965065</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02047500037983863</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>549185752.4548477</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5473681612.960934</v>
+        <v>873877857.4657218</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002400528936933253</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>14</v>
+        <v>0.08742984121726766</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03893583573337061</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>436938974.868681</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7314122201.645696</v>
+        <v>2418625860.085024</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002655963552864009</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>16</v>
+        <v>0.1653983945458802</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02731845997977919</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1209312958.426821</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4593094121.62757</v>
+        <v>1843705275.779896</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003672835601478185</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.1069968552114211</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03671218019153064</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>921852643.5361606</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3308113112.402761</v>
+        <v>2060018862.46894</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005173493062713223</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.11083847123715</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0382984194578956</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1030009401.280849</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4821248305.70759</v>
+        <v>1676083738.795618</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002146897417997961</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
+        <v>0.1861270035729033</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02993884595199534</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>838041912.9866986</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6850627560.138194</v>
+        <v>1334111059.092655</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004258875565115648</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>15</v>
+        <v>0.1073867498291216</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05907687590771749</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>667055537.1557691</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5427951468.787171</v>
+        <v>2624237022.234869</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0009750356803114185</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16</v>
+        <v>0.1160433742744805</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03639979142067853</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1312118524.098504</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6497680526.948932</v>
+        <v>2689416981.253935</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005066900631888306</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>13</v>
+        <v>0.07792470294360455</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03813924697570572</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1344708429.552984</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6448255922.3577</v>
+        <v>2170611554.38594</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003609465258062368</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>13</v>
+        <v>0.162043826636058</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01714017609006496</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1085305858.845625</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5877679539.108538</v>
+        <v>1440059799.253931</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001495816219478992</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.09079666477256203</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03294499301259866</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>720029894.1303706</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3968518850.71242</v>
+        <v>2484273278.129012</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001178352305486753</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1284848666344442</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04949561460650399</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1242136678.581609</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7723060538.371168</v>
+        <v>3976449821.4998</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004139032916594314</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
+        <v>0.1427009943184435</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04439328402153148</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1988224878.81649</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8684397748.560272</v>
+        <v>4125673310.425507</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002519183464657822</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1269071331120222</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04551258843315917</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2062836661.339341</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8252405232.248466</v>
+        <v>4245984264.472256</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002583595902157561</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
+        <v>0.09435538827086483</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03627447066634214</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2122992152.192368</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4100437158.020393</v>
+        <v>1316666301.100973</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004032829644835092</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1705565096813241</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02783378512978235</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>658333210.9731101</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5437439786.527734</v>
+        <v>3092136930.091286</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002650738210992574</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>15</v>
+        <v>0.1633642220172954</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05090390820703704</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>19</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1546068518.209179</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4616613071.247946</v>
+        <v>1309923669.624962</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004247298440940673</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1769498337968374</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05193498186164189</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>654961868.409346</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5869486007.942591</v>
+        <v>4129725929.758366</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002166512769355108</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>14</v>
+        <v>0.1050111550446125</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04823913595737</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2064863013.604786</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4484273748.921944</v>
+        <v>2405669465.184072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002578374854704253</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11</v>
+        <v>0.1817527333687</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02344586314923735</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1202834805.96304</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5963921388.770672</v>
+        <v>4820004783.124886</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003466382794097489</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>14</v>
+        <v>0.1670304825854401</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04240400984800102</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2410002519.852697</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8494714039.534785</v>
+        <v>3929669727.340097</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004331100915947595</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>18</v>
+        <v>0.1824429578630943</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03090295497003665</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1964834835.379049</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4347077403.633626</v>
+        <v>1309165848.169159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002049653005687788</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
+        <v>0.1520928128723814</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05636910073003951</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>654582994.5061849</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7423873863.034068</v>
+        <v>3144718997.641363</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003258283771423528</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.183186826342214</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02362921567710574</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1572359515.252478</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4445438125.069961</v>
+        <v>1422246381.061743</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002206635887305725</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>13</v>
+        <v>0.1951144224773367</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03499961176283792</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>711123228.6171315</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>8025309751.621362</v>
+        <v>3980338247.203193</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004214561270784758</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.09050263636848474</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03907721792284276</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1990169100.385936</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5955937904.331994</v>
+        <v>3567426565.868424</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003944781450395134</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1956055612890253</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0280375000956642</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1783713412.642436</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3303620975.639953</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1675863993463297</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02872306561757648</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>488</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4527148888.76125</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.005759780393089153</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+      <c r="I61" t="n">
+        <v>19</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1651810439.525575</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6565275675.74396</v>
+        <v>1529628195.547775</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002720477536933894</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
+        <v>0.142831694485373</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03831771170241448</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>764814085.1272453</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>469</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3977389727.597712</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.07293760629743964</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03287115884330573</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="D63" t="n">
-        <v>490</v>
-      </c>
-      <c r="E63" t="n">
-        <v>8597752980.757811</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.003833409387547581</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
+      <c r="I63" t="n">
+        <v>16</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1988694927.072223</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3333537957.626286</v>
+        <v>4453901033.896971</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005443223824838741</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1432635639365422</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03338705753553367</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2226950584.620061</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7201532587.638578</v>
+        <v>4646127775.170352</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004966543176536983</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>14</v>
+        <v>0.130714781705049</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02184587885785113</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2323063867.493497</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6372125213.303321</v>
+        <v>5110491944.898703</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002754395031223828</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1481002958027256</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03200397752415254</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2555246005.393034</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5627214988.573756</v>
+        <v>3012392208.813531</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005396971013792023</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.08581089801659177</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04594531809638741</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>18</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1506196121.478095</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7280586563.085748</v>
+        <v>4302582854.535811</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002355002417592345</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>12</v>
+        <v>0.11597510800413</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03371783217342711</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2151291441.282288</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4802633665.3806</v>
+        <v>2116377039.648144</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008382530096255771</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>13</v>
+        <v>0.1759177996290967</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03920061261058785</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1058188539.698622</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5624159448.846764</v>
+        <v>3405800158.078802</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002903469051827087</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+        <v>0.06210779761659795</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04686230303982971</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1702900082.293045</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3732511407.386542</v>
+        <v>4079077044.035194</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003158660238174562</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1528533400900609</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02348676573114813</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2039538558.851913</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8027037476.649774</v>
+        <v>1990406742.976092</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001790480504375834</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>12</v>
+        <v>0.07868331655365257</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03530023766070692</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>995203319.2434825</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5117191024.750238</v>
+        <v>3227165751.408456</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001129598695101991</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13</v>
+        <v>0.09116902541900562</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05178145413833204</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1613582850.762233</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6280361214.649004</v>
+        <v>3410133399.515946</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004887851535029481</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>12</v>
+        <v>0.1167840268558407</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03512774762987406</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1705066729.580029</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8080412728.407644</v>
+        <v>2424252808.798233</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004127693528968164</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
+        <v>0.1238233843633788</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03741176940641718</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1212126328.688586</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6980662835.149062</v>
+        <v>4268669965.099583</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002990451281623176</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>11</v>
+        <v>0.1177283826753856</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02188096794104726</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2134334978.388437</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5732966926.314511</v>
+        <v>1500984266.645346</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005321760406877611</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1830655643753655</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02067083320683905</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>750492121.0562652</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6746654920.457122</v>
+        <v>3620885118.581817</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003641101561762275</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>11</v>
+        <v>0.1063911478665266</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0490436145645828</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1810442552.040083</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7472908331.293501</v>
+        <v>1296404923.151708</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002356341489628019</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>12</v>
+        <v>0.1688728941734189</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03097130079234494</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>648202460.0771679</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7210321839.10521</v>
+        <v>3481714673.526617</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002142922892692899</v>
-      </c>
-      <c r="G80" t="b">
+        <v>0.0738831210894787</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02775050700501898</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="H80" t="n">
-        <v>17</v>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1740857310.341015</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7033904171.514323</v>
+        <v>3491054040.655742</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003565802934337337</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.1152030628224681</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03219613667475095</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1745526964.482184</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7394703091.67469</v>
+        <v>3763159719.739607</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004246340280588913</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>10</v>
+        <v>0.1595576408665845</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.022383686117223</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1881579912.742659</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9237779027.183586</v>
+        <v>1519193673.487303</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003356737562956917</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1203585098140363</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03255685405791543</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>759596762.0955474</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7406206468.642699</v>
+        <v>2523597444.166971</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005126054040802399</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>15</v>
+        <v>0.1121223121709995</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04792394468286966</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1261798650.276477</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5758540547.403565</v>
+        <v>3128571955.830618</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003118363147433557</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1345659522233889</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03696010499373017</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1564286052.14335</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5545826116.388424</v>
+        <v>2608700007.546812</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002545814659658616</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.1281722933432459</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01780035118904331</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1304350115.936706</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5098036569.284985</v>
+        <v>1423995737.445176</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001376645281328188</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1722367692247036</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02762243541337733</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>711997981.6107447</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9193148379.037491</v>
+        <v>3570065323.619758</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003987645742839581</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13</v>
+        <v>0.1523752680003091</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03496347932776294</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1785032748.434168</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6557091218.121714</v>
+        <v>2686298891.271113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003317038533868837</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>12</v>
+        <v>0.1117592319169659</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03425668552403748</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1343149506.620776</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5478848266.095358</v>
+        <v>2141279708.571565</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00242274699665092</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
+        <v>0.1251121613084077</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04577648174325191</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1070639950.264607</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5753808425.984119</v>
+        <v>1927423924.03272</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003804813691601779</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>17</v>
+        <v>0.1651656099430602</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03919945786151512</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>963711943.8371059</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5452402339.751305</v>
+        <v>2290839984.683526</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002692947006286403</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07028226578565228</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03258611897041285</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1145419960.365659</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6785674224.823604</v>
+        <v>3804218994.667184</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001539569992727354</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>19</v>
+        <v>0.124692188796358</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04187765837788662</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1902109510.492644</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5217717389.593486</v>
+        <v>2528078045.81474</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00152193869837442</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>17</v>
+        <v>0.1537350534483165</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03685295097002031</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1264039089.860364</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6182978287.53819</v>
+        <v>2143723718.524884</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002181714028076694</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1018157445375648</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03663975322539988</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1071861921.103693</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9970134093.59157</v>
+        <v>2079967811.431039</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002943776139248182</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>15</v>
+        <v>0.1105049293491128</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03890630535799267</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1039983884.034614</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6593821982.938467</v>
+        <v>3700833601.512289</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004829867108837003</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1135463382130707</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02691903628669947</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>14</v>
+      <c r="I97" t="n">
+        <v>18</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1850416832.958623</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7472652475.826664</v>
+        <v>3101358980.384316</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004577980406123778</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>21</v>
+        <v>0.08276007784297695</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03211939606435105</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1550679481.628742</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3508670179.057317</v>
+        <v>2403839737.867526</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004415208845095891</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09329092388924397</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02798073494427589</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1201919811.510615</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4776276618.43041</v>
+        <v>3202297849.319933</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002247090755720489</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1704899545309282</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02469876545446074</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1601148931.53556</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6816677576.144697</v>
+        <v>2390469803.856738</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001259919509354063</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>18</v>
+        <v>0.1651378866621943</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0376389889795708</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1195234910.286398</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_56.xlsx
+++ b/output/fit_clients/fit_round_56.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1650947612.576543</v>
+        <v>2108995355.278624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07743880426841475</v>
+        <v>0.08607499055379302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03905901711353026</v>
+        <v>0.04409274843672972</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>825473754.8679237</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2532794921.878812</v>
+        <v>1711554361.290095</v>
       </c>
       <c r="F3" t="n">
-        <v>0.160793496150993</v>
+        <v>0.1384970254575838</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04487985823064853</v>
+        <v>0.04477230288921384</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1266397583.394028</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5138941765.613554</v>
+        <v>4475454400.678388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1531228727148798</v>
+        <v>0.1324933899490721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02374441931044611</v>
+        <v>0.03049156789990139</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2569470977.550818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3530979991.256471</v>
+        <v>3854453961.920856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07460700222303505</v>
+        <v>0.0891310415047864</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03468946629344882</v>
+        <v>0.03740440332537711</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1765490030.243028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2113876460.557506</v>
+        <v>1920250532.109478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0933872212338069</v>
+        <v>0.1020122540820173</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04026381204615011</v>
+        <v>0.03975874239234462</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1056938247.410362</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3074801645.081425</v>
+        <v>3051887073.766575</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08559748010364958</v>
+        <v>0.09557414129299681</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0430802510583668</v>
+        <v>0.04595658324927714</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1537400780.112439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3674188862.679904</v>
+        <v>2762658154.389596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2164588381391527</v>
+        <v>0.2030354516950874</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0231978383357565</v>
+        <v>0.03172227281211877</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1837094557.645422</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2155835758.035184</v>
+        <v>1636556759.735677</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1521415882799552</v>
+        <v>0.1604416318962336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02926339104873473</v>
+        <v>0.03036865868962618</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1077917883.851456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4118663881.146343</v>
+        <v>4729286241.567297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1522630823259272</v>
+        <v>0.148872314352881</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05176231515074269</v>
+        <v>0.04812373274685739</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2059331971.54119</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3713282000.451554</v>
+        <v>3339115076.676358</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1256452886708392</v>
+        <v>0.1178636178829526</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04565208721871974</v>
+        <v>0.04776019953362377</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>23</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1856640992.803313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2222879839.867928</v>
+        <v>2926121971.358276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1466133313378771</v>
+        <v>0.1905496389030307</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04429581557142008</v>
+        <v>0.04947752844797128</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1111439866.656131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4928015280.391376</v>
+        <v>3755696242.74681</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09458607533146385</v>
+        <v>0.07909123241328311</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02961121372741133</v>
+        <v>0.02051932835055097</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2464007647.867481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3459367407.958942</v>
+        <v>2566041151.347061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1747454326229861</v>
+        <v>0.1453354648044485</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03965285346654895</v>
+        <v>0.03209488589927534</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1729683704.999486</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1527947934.327199</v>
+        <v>1141637958.378203</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0944231038678507</v>
+        <v>0.09449871935032202</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04061649083364798</v>
+        <v>0.03967066221345266</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>763974058.8713534</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1924441548.716735</v>
+        <v>2820228226.001474</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08785436671869136</v>
+        <v>0.1129018125423712</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03445771274126563</v>
+        <v>0.04530750961231059</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>962220856.4814955</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4747862661.048655</v>
+        <v>5335174480.895922</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1436217781385703</v>
+        <v>0.1632957180436453</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05322301138872824</v>
+        <v>0.05051955192200836</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2373931328.06885</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3763883322.288484</v>
+        <v>3287518394.387006</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1825998158609738</v>
+        <v>0.1393674022426601</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02380384530071574</v>
+        <v>0.03229999493546354</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1881941635.954685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1241209455.468743</v>
+        <v>896583226.4314573</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1220473313431083</v>
+        <v>0.1811281794966737</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02145969501965344</v>
+        <v>0.0177277568083337</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>620604815.5353035</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1741907506.974703</v>
+        <v>2707095636.248697</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1526416075540356</v>
+        <v>0.1481238376824036</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02516080828047713</v>
+        <v>0.03081770701318828</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>870953807.2087491</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2576388511.772116</v>
+        <v>2467929896.388028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06253976132680056</v>
+        <v>0.07697858883530501</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03335217398265195</v>
+        <v>0.03056496604854321</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1288194236.641037</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3847859757.674811</v>
+        <v>3817823617.274346</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1181038558542714</v>
+        <v>0.1277315220986253</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04359353218996808</v>
+        <v>0.04879235584967138</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1923929889.470038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1238001994.516741</v>
+        <v>1051090521.987558</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1452808422180721</v>
+        <v>0.1213855725734693</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03912245808113109</v>
+        <v>0.03639175325704117</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>619001027.2179024</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3783823973.664797</v>
+        <v>3711207008.037401</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1194965216921996</v>
+        <v>0.1476434827392382</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02723466742739161</v>
+        <v>0.02698188133214822</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1891911969.193104</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1171734082.159655</v>
+        <v>1394379904.197322</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1175008447145955</v>
+        <v>0.07544320001631662</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03063332195567291</v>
+        <v>0.02073430833088916</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>585867065.4314507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>896338658.5734218</v>
+        <v>1058195486.208737</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08399098536599144</v>
+        <v>0.1092878308047205</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0354291749145668</v>
+        <v>0.02920744276219405</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>448169275.8114337</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3449179570.9166</v>
+        <v>3219721105.622087</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1347528073656858</v>
+        <v>0.09529338900220785</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02207608561196236</v>
+        <v>0.02158000232817579</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1724589822.837273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3188803703.495801</v>
+        <v>3326984413.259502</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09973832502104828</v>
+        <v>0.1243060243261204</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04888631653532009</v>
+        <v>0.0501048866574275</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1594401879.260419</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4014818912.838655</v>
+        <v>3706567155.024112</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1170812684869672</v>
+        <v>0.09726354248824004</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03289060435021999</v>
+        <v>0.03861308021238752</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2007409472.143306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2003935799.564737</v>
+        <v>1827672045.888986</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1307060139858851</v>
+        <v>0.1061765612591937</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03787526618386905</v>
+        <v>0.03034660971646923</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1001967937.547849</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1004666546.885258</v>
+        <v>1406512932.872669</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09131890918584129</v>
+        <v>0.1029066633492054</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03978587363321322</v>
+        <v>0.04347217510764449</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>502333270.7282335</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1257508639.914072</v>
+        <v>1533298093.325255</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1093307571220598</v>
+        <v>0.08287790103691144</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02485766728263577</v>
+        <v>0.03679065734658314</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>628754337.9335531</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3033018867.186857</v>
+        <v>2756150286.036419</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1513406003363694</v>
+        <v>0.2076742651745444</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03826597502105153</v>
+        <v>0.05410163726090493</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1516509426.270833</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1098371461.74888</v>
+        <v>1480187708.066524</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1177730396965065</v>
+        <v>0.082774463930174</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02047500037983863</v>
+        <v>0.02498238115441605</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>549185752.4548477</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>873877857.4657218</v>
+        <v>963953557.2988497</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08742984121726766</v>
+        <v>0.1032393550909753</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03893583573337061</v>
+        <v>0.04337825872774347</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>436938974.868681</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2418625860.085024</v>
+        <v>2356188214.324726</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1653983945458802</v>
+        <v>0.1408923718132929</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02731845997977919</v>
+        <v>0.02357665912714206</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1209312958.426821</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1843705275.779896</v>
+        <v>1900980450.433322</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1069968552114211</v>
+        <v>0.07666077747353392</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03671218019153064</v>
+        <v>0.03485833540939428</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>921852643.5361606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2060018862.46894</v>
+        <v>1715905610.41527</v>
       </c>
       <c r="F38" t="n">
-        <v>0.11083847123715</v>
+        <v>0.08891226520704461</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0382984194578956</v>
+        <v>0.02461653907237898</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1030009401.280849</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1676083738.795618</v>
+        <v>1927245980.817257</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1861270035729033</v>
+        <v>0.1496864981405095</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02993884595199534</v>
+        <v>0.03121238012841954</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>838041912.9866986</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1334111059.092655</v>
+        <v>1717210712.173748</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1073867498291216</v>
+        <v>0.1535887649984459</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05907687590771749</v>
+        <v>0.05783776591910052</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>667055537.1557691</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2624237022.234869</v>
+        <v>2400228163.212278</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1160433742744805</v>
+        <v>0.1083639986607058</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03639979142067853</v>
+        <v>0.04318727449037154</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1312118524.098504</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2689416981.253935</v>
+        <v>3537686590.050765</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07792470294360455</v>
+        <v>0.112921998042329</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03813924697570572</v>
+        <v>0.03812873057575651</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1344708429.552984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2170611554.38594</v>
+        <v>2501967072.412324</v>
       </c>
       <c r="F43" t="n">
-        <v>0.162043826636058</v>
+        <v>0.1673123950025116</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01714017609006496</v>
+        <v>0.02118893836627246</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1085305858.845625</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1440059799.253931</v>
+        <v>2042433747.705038</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09079666477256203</v>
+        <v>0.07230819095486479</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03294499301259866</v>
+        <v>0.03664862135044606</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>720029894.1303706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2484273278.129012</v>
+        <v>1736036350.198216</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1284848666344442</v>
+        <v>0.1923173851205248</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04949561460650399</v>
+        <v>0.03597075867045032</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1242136678.581609</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3976449821.4998</v>
+        <v>5276111980.216675</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1427009943184435</v>
+        <v>0.1551051216694724</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04439328402153148</v>
+        <v>0.04393715569284955</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1988224878.81649</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4125673310.425507</v>
+        <v>5063868702.727813</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1269071331120222</v>
+        <v>0.1793750656202932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04551258843315917</v>
+        <v>0.05951590683124853</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2062836661.339341</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4245984264.472256</v>
+        <v>3021831324.581154</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09435538827086483</v>
+        <v>0.09439359901927249</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03627447066634214</v>
+        <v>0.03368772461607657</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>18</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2122992152.192368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1316666301.100973</v>
+        <v>1603191245.951042</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1705565096813241</v>
+        <v>0.140259442220392</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02783378512978235</v>
+        <v>0.04095344631520945</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>658333210.9731101</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3092136930.091286</v>
+        <v>3004917153.35489</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1633642220172954</v>
+        <v>0.1736777475498276</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05090390820703704</v>
+        <v>0.03458617158886638</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>19</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1546068518.209179</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1309923669.624962</v>
+        <v>939138446.0842257</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1769498337968374</v>
+        <v>0.1526733371684923</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05193498186164189</v>
+        <v>0.0392137581281791</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>654961868.409346</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4129725929.758366</v>
+        <v>3456774497.962817</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1050111550446125</v>
+        <v>0.1090625081218783</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04823913595737</v>
+        <v>0.04998141915200564</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>23</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2064863013.604786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2405669465.184072</v>
+        <v>3197019654.544947</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1817527333687</v>
+        <v>0.1868686455060318</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02344586314923735</v>
+        <v>0.02383059058939201</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>16</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1202834805.96304</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4820004783.124886</v>
+        <v>3872379816.269307</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1670304825854401</v>
+        <v>0.1407332913665272</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04240400984800102</v>
+        <v>0.03323645515784916</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2410002519.852697</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3929669727.340097</v>
+        <v>4622808770.597832</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1824429578630943</v>
+        <v>0.1702946880392169</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03090295497003665</v>
+        <v>0.02901739834288021</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1964834835.379049</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1309165848.169159</v>
+        <v>1223761907.208477</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1520928128723814</v>
+        <v>0.1192235218739221</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05636910073003951</v>
+        <v>0.04105639852309689</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>654582994.5061849</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3144718997.641363</v>
+        <v>3101022215.584171</v>
       </c>
       <c r="F57" t="n">
-        <v>0.183186826342214</v>
+        <v>0.1587265923204873</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02362921567710574</v>
+        <v>0.01750358485405833</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1572359515.252478</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1422246381.061743</v>
+        <v>1693952889.897012</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1951144224773367</v>
+        <v>0.1420145416757946</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03499961176283792</v>
+        <v>0.02860645118642653</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>711123228.6171315</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3980338247.203193</v>
+        <v>5055411592.787801</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09050263636848474</v>
+        <v>0.08122668759165581</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03907721792284276</v>
+        <v>0.04424578971794024</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1990169100.385936</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3567426565.868424</v>
+        <v>2343718686.39002</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1956055612890253</v>
+        <v>0.1714214925972991</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0280375000956642</v>
+        <v>0.03274646293114556</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1783713412.642436</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3303620975.639953</v>
+        <v>3236773755.611498</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1675863993463297</v>
+        <v>0.1704456780751103</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02872306561757648</v>
+        <v>0.02805939408989592</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>19</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1651810439.525575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1529628195.547775</v>
+        <v>2045445692.435311</v>
       </c>
       <c r="F62" t="n">
-        <v>0.142831694485373</v>
+        <v>0.1728968554040767</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03831771170241448</v>
+        <v>0.03027114092226791</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>764814085.1272453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3977389727.597712</v>
+        <v>4329698997.61594</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07293760629743964</v>
+        <v>0.09159340432822446</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03287115884330573</v>
+        <v>0.03876572145844207</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>16</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1988694927.072223</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4453901033.896971</v>
+        <v>4044135979.975019</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1432635639365422</v>
+        <v>0.1805481573348679</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03338705753553367</v>
+        <v>0.02171503392543603</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>17</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2226950584.620061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4646127775.170352</v>
+        <v>5994625788.374433</v>
       </c>
       <c r="F65" t="n">
-        <v>0.130714781705049</v>
+        <v>0.1286966764325684</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02184587885785113</v>
+        <v>0.01976112116126344</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>20</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2323063867.493497</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5110491944.898703</v>
+        <v>4840910951.684313</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1481002958027256</v>
+        <v>0.1009623394696304</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03200397752415254</v>
+        <v>0.03659767003661366</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2555246005.393034</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3012392208.813531</v>
+        <v>2228539282.797952</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08581089801659177</v>
+        <v>0.08166667395698346</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04594531809638741</v>
+        <v>0.0325487705719572</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>18</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1506196121.478095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4302582854.535811</v>
+        <v>5705863860.831035</v>
       </c>
       <c r="F68" t="n">
-        <v>0.11597510800413</v>
+        <v>0.1336096242038411</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03371783217342711</v>
+        <v>0.04084204468625357</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2151291441.282288</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2116377039.648144</v>
+        <v>1896217224.523484</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1759177996290967</v>
+        <v>0.1696092071501528</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03920061261058785</v>
+        <v>0.03777866766894541</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1058188539.698622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3405800158.078802</v>
+        <v>3625604654.741541</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06210779761659795</v>
+        <v>0.09400562706186959</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04686230303982971</v>
+        <v>0.03811919100250963</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1702900082.293045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4079077044.035194</v>
+        <v>5400079378.381048</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1528533400900609</v>
+        <v>0.1564676518259135</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02348676573114813</v>
+        <v>0.02189462053422817</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2039538558.851913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1990406742.976092</v>
+        <v>1501054207.569412</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07868331655365257</v>
+        <v>0.07445463574077932</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03530023766070692</v>
+        <v>0.03937778617437365</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>995203319.2434825</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3227165751.408456</v>
+        <v>2360042144.087019</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09116902541900562</v>
+        <v>0.0889678030396393</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05178145413833204</v>
+        <v>0.05066317970782762</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1613582850.762233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3410133399.515946</v>
+        <v>2584243812.734559</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1167840268558407</v>
+        <v>0.1605414669175928</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03512774762987406</v>
+        <v>0.0337199753820512</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1705066729.580029</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2424252808.798233</v>
+        <v>1735785153.911324</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1238233843633788</v>
+        <v>0.1104184938380024</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03741176940641718</v>
+        <v>0.03121583643531722</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1212126328.688586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4268669965.099583</v>
+        <v>4700639839.454506</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1177283826753856</v>
+        <v>0.1207649217465046</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02188096794104726</v>
+        <v>0.03098795007297945</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2134334978.388437</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1500984266.645346</v>
+        <v>1616746776.085034</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1830655643753655</v>
+        <v>0.120156142653427</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02067083320683905</v>
+        <v>0.02061420982636201</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>750492121.0562652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3620885118.581817</v>
+        <v>4569571090.486238</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1063911478665266</v>
+        <v>0.08935717628015713</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0490436145645828</v>
+        <v>0.04921272908593007</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>20</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1810442552.040083</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1296404923.151708</v>
+        <v>1329173515.442777</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1688728941734189</v>
+        <v>0.1427537473634508</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03097130079234494</v>
+        <v>0.02974108439558242</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>648202460.0771679</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3481714673.526617</v>
+        <v>5078010733.198956</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0738831210894787</v>
+        <v>0.07052867465817578</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02775050700501898</v>
+        <v>0.03699474577267896</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1740857310.341015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3491054040.655742</v>
+        <v>5192625223.557579</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1152030628224681</v>
+        <v>0.1203890356952719</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03219613667475095</v>
+        <v>0.02749502872528238</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1745526964.482184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3763159719.739607</v>
+        <v>3449510968.703129</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1595576408665845</v>
+        <v>0.1934783077455735</v>
       </c>
       <c r="G82" t="n">
-        <v>0.022383686117223</v>
+        <v>0.01794902705909104</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1881579912.742659</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1519193673.487303</v>
+        <v>2269492025.89841</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1203585098140363</v>
+        <v>0.1494021464502003</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03255685405791543</v>
+        <v>0.03116127902325361</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>759596762.0955474</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2523597444.166971</v>
+        <v>1584668225.763663</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1121223121709995</v>
+        <v>0.07978797679746627</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04792394468286966</v>
+        <v>0.04878718730940218</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1261798650.276477</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3128571955.830618</v>
+        <v>2808824227.873806</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1345659522233889</v>
+        <v>0.1703425862747486</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03696010499373017</v>
+        <v>0.05187559910720252</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1564286052.14335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2608700007.546812</v>
+        <v>1817390940.726407</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1281722933432459</v>
+        <v>0.148044904483248</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01780035118904331</v>
+        <v>0.0246176763212983</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1304350115.936706</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1423995737.445176</v>
+        <v>1252107082.892832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1722367692247036</v>
+        <v>0.1454148481813846</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02762243541337733</v>
+        <v>0.02818824970577299</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>711997981.6107447</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3570065323.619758</v>
+        <v>3576669817.881342</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1523752680003091</v>
+        <v>0.1144865177236446</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03496347932776294</v>
+        <v>0.03132492029244428</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>22</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1785032748.434168</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2686298891.271113</v>
+        <v>3258785330.792858</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1117592319169659</v>
+        <v>0.1377265753079913</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03425668552403748</v>
+        <v>0.03670592231066243</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1343149506.620776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2141279708.571565</v>
+        <v>2131040639.028104</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1251121613084077</v>
+        <v>0.1178113654202891</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04577648174325191</v>
+        <v>0.04363404068739217</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1070639950.264607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1927423924.03272</v>
+        <v>1456856341.743947</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1651656099430602</v>
+        <v>0.1711926717096866</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03919945786151512</v>
+        <v>0.0460978264443596</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>963711943.8371059</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2290839984.683526</v>
+        <v>2549360857.375463</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07028226578565228</v>
+        <v>0.0952610420714282</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03258611897041285</v>
+        <v>0.04631237081586338</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1145419960.365659</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3804218994.667184</v>
+        <v>4248511820.982234</v>
       </c>
       <c r="F93" t="n">
-        <v>0.124692188796358</v>
+        <v>0.1140010285929473</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04187765837788662</v>
+        <v>0.04407788600711267</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1902109510.492644</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2528078045.81474</v>
+        <v>2462419055.017299</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1537350534483165</v>
+        <v>0.1471456102852764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03685295097002031</v>
+        <v>0.03616305284319049</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1264039089.860364</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2143723718.524884</v>
+        <v>2762868548.758073</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1018157445375648</v>
+        <v>0.1151946160142426</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03663975322539988</v>
+        <v>0.04800048457657075</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1071861921.103693</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2079967811.431039</v>
+        <v>2395732871.656225</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1105049293491128</v>
+        <v>0.1143082652590335</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03890630535799267</v>
+        <v>0.03418395212924116</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1039983884.034614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3700833601.512289</v>
+        <v>4760060461.547445</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1135463382130707</v>
+        <v>0.1096745286182476</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02691903628669947</v>
+        <v>0.02285678293344016</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>18</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1850416832.958623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3101358980.384316</v>
+        <v>2653289050.869706</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08276007784297695</v>
+        <v>0.08619346137435044</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03211939606435105</v>
+        <v>0.02797316857062777</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1550679481.628742</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2403839737.867526</v>
+        <v>3112823177.063889</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09329092388924397</v>
+        <v>0.1263681006281373</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02798073494427589</v>
+        <v>0.03145678289081816</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1201919811.510615</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3202297849.319933</v>
+        <v>3170412396.051419</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1704899545309282</v>
+        <v>0.1148300851656621</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02469876545446074</v>
+        <v>0.02662560257716439</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>17</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1601148931.53556</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2390469803.856738</v>
+        <v>3369796610.096577</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1651378866621943</v>
+        <v>0.180393732671559</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0376389889795708</v>
+        <v>0.04433825480985612</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>24</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1195234910.286398</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_56.xlsx
+++ b/output/fit_clients/fit_round_56.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2108995355.278624</v>
+        <v>1624023492.377867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08607499055379302</v>
+        <v>0.09922526151007799</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04409274843672972</v>
+        <v>0.0331160010944137</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1711554361.290095</v>
+        <v>2069096078.415371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1384970254575838</v>
+        <v>0.1542401317896004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04477230288921384</v>
+        <v>0.03677663066354437</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4475454400.678388</v>
+        <v>4430096934.717105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1324933899490721</v>
+        <v>0.1172404832205095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03049156789990139</v>
+        <v>0.03683450152079534</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3854453961.920856</v>
+        <v>3102650142.762367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0891310415047864</v>
+        <v>0.0701736959138029</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03740440332537711</v>
+        <v>0.0435406541812134</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1920250532.109478</v>
+        <v>1831144109.833132</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1020122540820173</v>
+        <v>0.09325043774219559</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03975874239234462</v>
+        <v>0.03575147397948187</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3051887073.766575</v>
+        <v>2045631451.650913</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09557414129299681</v>
+        <v>0.1018163840420614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04595658324927714</v>
+        <v>0.03973782687700989</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2762658154.389596</v>
+        <v>3629763917.721821</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2030354516950874</v>
+        <v>0.164930536767838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03172227281211877</v>
+        <v>0.03072284015095791</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1636556759.735677</v>
+        <v>1456516171.769735</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1604416318962336</v>
+        <v>0.1959861814880091</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03036865868962618</v>
+        <v>0.03683690717905343</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4729286241.567297</v>
+        <v>4515511100.363243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.148872314352881</v>
+        <v>0.1784522510787116</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04812373274685739</v>
+        <v>0.0485635048172028</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3339115076.676358</v>
+        <v>2965466312.561415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1178636178829526</v>
+        <v>0.1626868103832312</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04776019953362377</v>
+        <v>0.0378530631478892</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2926121971.358276</v>
+        <v>3115618588.028453</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1905496389030307</v>
+        <v>0.1342820502053646</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04947752844797128</v>
+        <v>0.03366204692794803</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3755696242.74681</v>
+        <v>3916542380.530653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07909123241328311</v>
+        <v>0.08958644893490378</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02051932835055097</v>
+        <v>0.02725024547516865</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2566041151.347061</v>
+        <v>3541186942.545134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1453354648044485</v>
+        <v>0.1255656916270525</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03209488589927534</v>
+        <v>0.03421778641485194</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1141637958.378203</v>
+        <v>1353655672.529155</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09449871935032202</v>
+        <v>0.07328901015196633</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03967066221345266</v>
+        <v>0.03982103470771235</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2820228226.001474</v>
+        <v>2310643801.82007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1129018125423712</v>
+        <v>0.1073267867852534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04530750961231059</v>
+        <v>0.04865836516150777</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5335174480.895922</v>
+        <v>3668978040.858063</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1632957180436453</v>
+        <v>0.121161566952607</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05051955192200836</v>
+        <v>0.04674941058895727</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3287518394.387006</v>
+        <v>2589273519.604401</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1393674022426601</v>
+        <v>0.1777881221036826</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03229999493546354</v>
+        <v>0.03222519307896377</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>896583226.4314573</v>
+        <v>1264296946.452001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1811281794966737</v>
+        <v>0.132782979327457</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0177277568083337</v>
+        <v>0.02499080915686262</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2707095636.248697</v>
+        <v>1893481602.255121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1481238376824036</v>
+        <v>0.1075332266044935</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03081770701318828</v>
+        <v>0.02658757011852624</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2467929896.388028</v>
+        <v>2230997386.073858</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07697858883530501</v>
+        <v>0.07677331079020658</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03056496604854321</v>
+        <v>0.02887099969288718</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3817823617.274346</v>
+        <v>2708062010.837945</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1277315220986253</v>
+        <v>0.1220884925841349</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04879235584967138</v>
+        <v>0.04346289055052896</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1051090521.987558</v>
+        <v>1086052017.789783</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1213855725734693</v>
+        <v>0.1540890717617488</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03639175325704117</v>
+        <v>0.03592598486293713</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3711207008.037401</v>
+        <v>3037351172.293252</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1476434827392382</v>
+        <v>0.09613785204592255</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02698188133214822</v>
+        <v>0.02700325803496388</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1394379904.197322</v>
+        <v>1111131959.610848</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07544320001631662</v>
+        <v>0.1008693424249025</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02073430833088916</v>
+        <v>0.02658887092561659</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1058195486.208737</v>
+        <v>1441181864.682915</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1092878308047205</v>
+        <v>0.1133662951498303</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02920744276219405</v>
+        <v>0.037823507477378</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3219721105.622087</v>
+        <v>3707360262.923659</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09529338900220785</v>
+        <v>0.1027830818307378</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02158000232817579</v>
+        <v>0.01718155326524565</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3326984413.259502</v>
+        <v>3830935485.673546</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1243060243261204</v>
+        <v>0.1364570607134886</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0501048866574275</v>
+        <v>0.03521237575559782</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3706567155.024112</v>
+        <v>4649684820.772067</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09726354248824004</v>
+        <v>0.1368819305754772</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03861308021238752</v>
+        <v>0.03179007576473172</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1827672045.888986</v>
+        <v>1494184116.536146</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1061765612591937</v>
+        <v>0.1140482622960754</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03034660971646923</v>
+        <v>0.03780649082215451</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1406512932.872669</v>
+        <v>1423098634.79633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1029066633492054</v>
+        <v>0.06759086629223161</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04347217510764449</v>
+        <v>0.03814448009841656</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1533298093.325255</v>
+        <v>1305514275.879722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08287790103691144</v>
+        <v>0.08869527832078899</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03679065734658314</v>
+        <v>0.03299831279134789</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2756150286.036419</v>
+        <v>2984651410.129421</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2076742651745444</v>
+        <v>0.1855020855247058</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05410163726090493</v>
+        <v>0.04155077311365957</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1480187708.066524</v>
+        <v>1096894999.315041</v>
       </c>
       <c r="F34" t="n">
-        <v>0.082774463930174</v>
+        <v>0.08854822069627438</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02498238115441605</v>
+        <v>0.02123339789472779</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>963953557.2988497</v>
+        <v>876207604.669091</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1032393550909753</v>
+        <v>0.1069300139737296</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04337825872774347</v>
+        <v>0.03708102857053043</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2356188214.324726</v>
+        <v>2845183041.587637</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1408923718132929</v>
+        <v>0.1653085291300526</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02357665912714206</v>
+        <v>0.0230262843716826</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1900980450.433322</v>
+        <v>2029318058.67658</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07666077747353392</v>
+        <v>0.09057327988125043</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03485833540939428</v>
+        <v>0.02643268608082399</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1715905610.41527</v>
+        <v>1591446896.554156</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08891226520704461</v>
+        <v>0.09081059618789106</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02461653907237898</v>
+        <v>0.02966170679675992</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1927245980.817257</v>
+        <v>1534688494.327617</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1496864981405095</v>
+        <v>0.1278346198424988</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03121238012841954</v>
+        <v>0.02399261562312933</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1717210712.173748</v>
+        <v>1299748327.057819</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1535887649984459</v>
+        <v>0.1591138577981366</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05783776591910052</v>
+        <v>0.04911342176247948</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2400228163.212278</v>
+        <v>2713817634.353758</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1083639986607058</v>
+        <v>0.1198022665660534</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04318727449037154</v>
+        <v>0.04072874560040173</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3537686590.050765</v>
+        <v>4360910610.115413</v>
       </c>
       <c r="F42" t="n">
-        <v>0.112921998042329</v>
+        <v>0.1065984003227441</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03812873057575651</v>
+        <v>0.03491472419479827</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2501967072.412324</v>
+        <v>2644390151.534769</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1673123950025116</v>
+        <v>0.1481994881623224</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02118893836627246</v>
+        <v>0.02573634605231933</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2042433747.705038</v>
+        <v>1908466322.758213</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07230819095486479</v>
+        <v>0.06756877165691179</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03664862135044606</v>
+        <v>0.03451156740409943</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1736036350.198216</v>
+        <v>2546332922.774449</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1923173851205248</v>
+        <v>0.1659178084380778</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03597075867045032</v>
+        <v>0.03989688456908912</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5276111980.216675</v>
+        <v>3845196574.581643</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1551051216694724</v>
+        <v>0.1436970355219746</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04393715569284955</v>
+        <v>0.03845927176961978</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5063868702.727813</v>
+        <v>4535682994.73461</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1793750656202932</v>
+        <v>0.1410113206187968</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05951590683124853</v>
+        <v>0.0497102368778999</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3021831324.581154</v>
+        <v>4645870353.012685</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09439359901927249</v>
+        <v>0.068256114392427</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03368772461607657</v>
+        <v>0.02496899533559195</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1603191245.951042</v>
+        <v>1609089401.34376</v>
       </c>
       <c r="F49" t="n">
-        <v>0.140259442220392</v>
+        <v>0.1883061614348106</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04095344631520945</v>
+        <v>0.03690736129853321</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3004917153.35489</v>
+        <v>3358629208.447667</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1736777475498276</v>
+        <v>0.1422571872496314</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03458617158886638</v>
+        <v>0.04634414448605012</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>939138446.0842257</v>
+        <v>1388315961.271384</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1526733371684923</v>
+        <v>0.1944108997307433</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0392137581281791</v>
+        <v>0.04898573122925805</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3456774497.962817</v>
+        <v>4055905240.320529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1090625081218783</v>
+        <v>0.1202946766589717</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04998141915200564</v>
+        <v>0.04224259147449801</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3197019654.544947</v>
+        <v>3081206789.607916</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1868686455060318</v>
+        <v>0.1679426906045805</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02383059058939201</v>
+        <v>0.02891436729228266</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3872379816.269307</v>
+        <v>4680046433.803741</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1407332913665272</v>
+        <v>0.1547412418317045</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03323645515784916</v>
+        <v>0.03987418236411194</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4622808770.597832</v>
+        <v>4557531841.76195</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1702946880392169</v>
+        <v>0.1408784649632528</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02901739834288021</v>
+        <v>0.02922542504682488</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1223761907.208477</v>
+        <v>1254976899.301194</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1192235218739221</v>
+        <v>0.1469028030573235</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04105639852309689</v>
+        <v>0.05432982713654872</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3101022215.584171</v>
+        <v>4006725594.065099</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1587265923204873</v>
+        <v>0.1169458242893047</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01750358485405833</v>
+        <v>0.02532116938879967</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1693952889.897012</v>
+        <v>1515120656.935493</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1420145416757946</v>
+        <v>0.2018616353554315</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02860645118642653</v>
+        <v>0.03066371331457542</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5055411592.787801</v>
+        <v>4583035300.741091</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08122668759165581</v>
+        <v>0.1011259642554671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04424578971794024</v>
+        <v>0.03068375255181285</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2343718686.39002</v>
+        <v>3562091595.041303</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1714214925972991</v>
+        <v>0.2052045736529344</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03274646293114556</v>
+        <v>0.02996764380620031</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3236773755.611498</v>
+        <v>2863407239.245622</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1704456780751103</v>
+        <v>0.16240179412278</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02805939408989592</v>
+        <v>0.02765771705990424</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2045445692.435311</v>
+        <v>1355183893.37411</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1728968554040767</v>
+        <v>0.1739965619856131</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03027114092226791</v>
+        <v>0.03436687742875662</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4329698997.61594</v>
+        <v>4516931286.027096</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09159340432822446</v>
+        <v>0.09762115826743681</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03876572145844207</v>
+        <v>0.03319009391654006</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4044135979.975019</v>
+        <v>5340594710.548004</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1805481573348679</v>
+        <v>0.1725560664779758</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02171503392543603</v>
+        <v>0.02809011104820983</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5994625788.374433</v>
+        <v>4515400877.093076</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1286966764325684</v>
+        <v>0.1525951389889094</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01976112116126344</v>
+        <v>0.0197495686836743</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4840910951.684313</v>
+        <v>5212896366.847165</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1009623394696304</v>
+        <v>0.1324926955470646</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03659767003661366</v>
+        <v>0.04181075504563275</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2228539282.797952</v>
+        <v>2190026169.339619</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08166667395698346</v>
+        <v>0.09072588865821121</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0325487705719572</v>
+        <v>0.04765375760640088</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5705863860.831035</v>
+        <v>3868522703.069154</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1336096242038411</v>
+        <v>0.1489692762491472</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04084204468625357</v>
+        <v>0.04054863420979934</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1896217224.523484</v>
+        <v>1803052048.012146</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1696092071501528</v>
+        <v>0.144668871958519</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03777866766894541</v>
+        <v>0.05322074334896244</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3625604654.741541</v>
+        <v>2683899625.999194</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09400562706186959</v>
+        <v>0.07120201675892848</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03811919100250963</v>
+        <v>0.03612412032755007</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5400079378.381048</v>
+        <v>4714844840.124871</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1564676518259135</v>
+        <v>0.1430109600164496</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02189462053422817</v>
+        <v>0.02955306183476889</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1501054207.569412</v>
+        <v>2158275652.484697</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07445463574077932</v>
+        <v>0.08598230139200791</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03937778617437365</v>
+        <v>0.04232029040237265</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2360042144.087019</v>
+        <v>2294624915.945833</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0889678030396393</v>
+        <v>0.0678611130764422</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05066317970782762</v>
+        <v>0.03932125047901962</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2584243812.734559</v>
+        <v>4010311399.062029</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1605414669175928</v>
+        <v>0.1608594783196867</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0337199753820512</v>
+        <v>0.02355258820310174</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1735785153.911324</v>
+        <v>2387736480.404292</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1104184938380024</v>
+        <v>0.1124682033940267</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03121583643531722</v>
+        <v>0.0334810470492131</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4700639839.454506</v>
+        <v>5051826487.769863</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1207649217465046</v>
+        <v>0.08015347825079921</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03098795007297945</v>
+        <v>0.03289716725535233</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1616746776.085034</v>
+        <v>2055863627.887299</v>
       </c>
       <c r="F77" t="n">
-        <v>0.120156142653427</v>
+        <v>0.1405992387330799</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02061420982636201</v>
+        <v>0.02631699038881657</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4569571090.486238</v>
+        <v>3693344564.205883</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08935717628015713</v>
+        <v>0.08731804774421915</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04921272908593007</v>
+        <v>0.04503760429106746</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1329173515.442777</v>
+        <v>1725278680.281391</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1427537473634508</v>
+        <v>0.1673623055579621</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02974108439558242</v>
+        <v>0.02929877927451022</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5078010733.198956</v>
+        <v>4453598314.382865</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07052867465817578</v>
+        <v>0.1009060366053046</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03699474577267896</v>
+        <v>0.03344885420288349</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5192625223.557579</v>
+        <v>3364200089.919202</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1203890356952719</v>
+        <v>0.112158431164616</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02749502872528238</v>
+        <v>0.02283326175962189</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3449510968.703129</v>
+        <v>5481245617.707644</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1934783077455735</v>
+        <v>0.1399690467919514</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01794902705909104</v>
+        <v>0.02142219762520677</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2269492025.89841</v>
+        <v>1523230440.291532</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1494021464502003</v>
+        <v>0.1156777059347026</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03116127902325361</v>
+        <v>0.04508574735833246</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1584668225.763663</v>
+        <v>2478929776.668288</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07978797679746627</v>
+        <v>0.1138796545016851</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04878718730940218</v>
+        <v>0.04401696876785218</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2808824227.873806</v>
+        <v>3601410199.807944</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1703425862747486</v>
+        <v>0.1378019077129642</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05187559910720252</v>
+        <v>0.0495046474494375</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1817390940.726407</v>
+        <v>2596768241.047181</v>
       </c>
       <c r="F86" t="n">
-        <v>0.148044904483248</v>
+        <v>0.1316007103077498</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0246176763212983</v>
+        <v>0.017783943126968</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1252107082.892832</v>
+        <v>1386667660.714782</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1454148481813846</v>
+        <v>0.1579050596536038</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02818824970577299</v>
+        <v>0.04245850738057234</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3576669817.881342</v>
+        <v>2294661458.93093</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1144865177236446</v>
+        <v>0.144957971592494</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03132492029244428</v>
+        <v>0.03064321262547858</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3258785330.792858</v>
+        <v>2355987149.420749</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1377265753079913</v>
+        <v>0.1127944513032446</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03670592231066243</v>
+        <v>0.03409418427916509</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2131040639.028104</v>
+        <v>1757097123.912222</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1178113654202891</v>
+        <v>0.08950177291393341</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04363404068739217</v>
+        <v>0.05421916543863483</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1456856341.743947</v>
+        <v>1370704333.622781</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1711926717096866</v>
+        <v>0.1870811529840957</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0460978264443596</v>
+        <v>0.04142224271050865</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2549360857.375463</v>
+        <v>2069429068.634128</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0952610420714282</v>
+        <v>0.1097803380635063</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04631237081586338</v>
+        <v>0.0356278910194508</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4248511820.982234</v>
+        <v>3331373031.735003</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1140010285929473</v>
+        <v>0.1000859804940304</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04407788600711267</v>
+        <v>0.04872233127693764</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2462419055.017299</v>
+        <v>2485125168.622017</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1471456102852764</v>
+        <v>0.1427845703827043</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03616305284319049</v>
+        <v>0.03077201614164254</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2762868548.758073</v>
+        <v>2750372626.466561</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1151946160142426</v>
+        <v>0.08873125613974454</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04800048457657075</v>
+        <v>0.04962259979151295</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2395732871.656225</v>
+        <v>1523554810.543662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1143082652590335</v>
+        <v>0.1195571511004597</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03418395212924116</v>
+        <v>0.04318193586810942</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4760060461.547445</v>
+        <v>5176482758.586397</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1096745286182476</v>
+        <v>0.1705241306800084</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02285678293344016</v>
+        <v>0.02898180645414247</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2653289050.869706</v>
+        <v>3799511400.938754</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08619346137435044</v>
+        <v>0.09593199676969608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02797316857062777</v>
+        <v>0.02650067816792371</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3112823177.063889</v>
+        <v>2863676144.445816</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1263681006281373</v>
+        <v>0.1055990844943177</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03145678289081816</v>
+        <v>0.03354051046153439</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3170412396.051419</v>
+        <v>3542850015.863234</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1148300851656621</v>
+        <v>0.151297927083011</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02662560257716439</v>
+        <v>0.02545744240156358</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3369796610.096577</v>
+        <v>2650606250.595554</v>
       </c>
       <c r="F101" t="n">
-        <v>0.180393732671559</v>
+        <v>0.1996377938078027</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04433825480985612</v>
+        <v>0.05146968168752214</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_56.xlsx
+++ b/output/fit_clients/fit_round_56.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1624023492.377867</v>
+        <v>1699811384.908789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09922526151007799</v>
+        <v>0.09680230520178638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0331160010944137</v>
+        <v>0.02914888630769547</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2069096078.415371</v>
+        <v>2350462086.912629</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1542401317896004</v>
+        <v>0.1229726678264396</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03677663066354437</v>
+        <v>0.03086041938019211</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4430096934.717105</v>
+        <v>3668791253.182629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1172404832205095</v>
+        <v>0.1455055669712675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03683450152079534</v>
+        <v>0.03771743446449901</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
+        <v>56</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3102650142.762367</v>
+        <v>3547763865.274544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0701736959138029</v>
+        <v>0.0872027261315524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0435406541812134</v>
+        <v>0.03449745764821251</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>165.9722760937086</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1831144109.833132</v>
+        <v>2743584995.799712</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09325043774219559</v>
+        <v>0.1392277905560703</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03575147397948187</v>
+        <v>0.03438562692922085</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2045631451.650913</v>
+        <v>2894186363.119624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1018163840420614</v>
+        <v>0.08803573546091145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03973782687700989</v>
+        <v>0.03833461297450101</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3629763917.721821</v>
+        <v>2926307334.544878</v>
       </c>
       <c r="F8" t="n">
-        <v>0.164930536767838</v>
+        <v>0.1800596915143041</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03072284015095791</v>
+        <v>0.02062262641260816</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>100.8080834193158</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1456516171.769735</v>
+        <v>2003261032.074794</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1959861814880091</v>
+        <v>0.1541209884171651</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03683690717905343</v>
+        <v>0.02736683896034567</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4515511100.363243</v>
+        <v>5477435883.0625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1784522510787116</v>
+        <v>0.1365024806366035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0485635048172028</v>
+        <v>0.04836826699891918</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>56</v>
+      </c>
+      <c r="K10" t="n">
+        <v>223.0487000745961</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2965466312.561415</v>
+        <v>2852441051.997297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1626868103832312</v>
+        <v>0.1729271881587121</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0378530631478892</v>
+        <v>0.03018703303309649</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3115618588.028453</v>
+        <v>2652144540.692155</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1342820502053646</v>
+        <v>0.152675560765639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03366204692794803</v>
+        <v>0.04938369073985659</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3916542380.530653</v>
+        <v>3372634940.277548</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08958644893490378</v>
+        <v>0.09751805628093259</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02725024547516865</v>
+        <v>0.02615764245164825</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3541186942.545134</v>
+        <v>3612928374.099929</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1255656916270525</v>
+        <v>0.1591517588258069</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03421778641485194</v>
+        <v>0.04084776080190078</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1353655672.529155</v>
+        <v>1141328731.459252</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07328901015196633</v>
+        <v>0.08052873296645251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03982103470771235</v>
+        <v>0.04134646835569643</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2310643801.82007</v>
+        <v>2692106840.545599</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1073267867852534</v>
+        <v>0.110102237097396</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04865836516150777</v>
+        <v>0.04577685930659221</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3668978040.858063</v>
+        <v>3724250481.562068</v>
       </c>
       <c r="F17" t="n">
-        <v>0.121161566952607</v>
+        <v>0.1473686135743325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04674941058895727</v>
+        <v>0.04316111721568638</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>55</v>
+      </c>
+      <c r="K17" t="n">
+        <v>158.093777919733</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2589273519.604401</v>
+        <v>3189472251.376001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1777881221036826</v>
+        <v>0.1268742064874725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03222519307896377</v>
+        <v>0.02828802405823131</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>53</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1264296946.452001</v>
+        <v>1050482614.733189</v>
       </c>
       <c r="F19" t="n">
-        <v>0.132782979327457</v>
+        <v>0.1695340760853452</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02499080915686262</v>
+        <v>0.02231892084540828</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1893481602.255121</v>
+        <v>2286928076.682694</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1075332266044935</v>
+        <v>0.1165360669971157</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02658757011852624</v>
+        <v>0.02996193564518027</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2230997386.073858</v>
+        <v>2146387325.351505</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07677331079020658</v>
+        <v>0.09043283388238361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02887099969288718</v>
+        <v>0.04322771633075524</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2708062010.837945</v>
+        <v>3194003747.679717</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1220884925841349</v>
+        <v>0.1147370471921708</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04346289055052896</v>
+        <v>0.04923740686962792</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1086052017.789783</v>
+        <v>1044236112.849571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1540890717617488</v>
+        <v>0.1538512610455771</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03592598486293713</v>
+        <v>0.03490379072216979</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3037351172.293252</v>
+        <v>3995566859.866293</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09613785204592255</v>
+        <v>0.1422721462906277</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02700325803496388</v>
+        <v>0.02358904079597389</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>55</v>
+      </c>
+      <c r="K24" t="n">
+        <v>182.3066953807765</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1111131959.610848</v>
+        <v>1127955798.814374</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1008693424249025</v>
+        <v>0.08085708374441256</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02658887092561659</v>
+        <v>0.02039961084237318</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1441181864.682915</v>
+        <v>1285337342.235423</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1133662951498303</v>
+        <v>0.1114001717721836</v>
       </c>
       <c r="G26" t="n">
-        <v>0.037823507477378</v>
+        <v>0.02681331139343052</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3707360262.923659</v>
+        <v>4106867594.344776</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1027830818307378</v>
+        <v>0.09880057853442864</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01718155326524565</v>
+        <v>0.01965657256732205</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>21</v>
+      </c>
+      <c r="J27" t="n">
+        <v>56</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3830935485.673546</v>
+        <v>2974721471.97749</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1364570607134886</v>
+        <v>0.1000688795733056</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03521237575559782</v>
+        <v>0.04107570318518627</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4649684820.772067</v>
+        <v>5020647021.407245</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1368819305754772</v>
+        <v>0.1045737585508178</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03179007576473172</v>
+        <v>0.03644797089778565</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>51</v>
+      </c>
+      <c r="J29" t="n">
+        <v>56</v>
+      </c>
+      <c r="K29" t="n">
+        <v>231.3892065746491</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1494184116.536146</v>
+        <v>1934081753.783825</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1140482622960754</v>
+        <v>0.09021706398691033</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03780649082215451</v>
+        <v>0.03972224808589795</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423098634.79633</v>
+        <v>1156774164.318115</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06759086629223161</v>
+        <v>0.09931218924823844</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03814448009841656</v>
+        <v>0.04785906873348281</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1305514275.879722</v>
+        <v>1229158320.482666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08869527832078899</v>
+        <v>0.08059293128585343</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03299831279134789</v>
+        <v>0.03604589157103043</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2984651410.129421</v>
+        <v>2970744412.753882</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1855020855247058</v>
+        <v>0.1353578859054859</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04155077311365957</v>
+        <v>0.0415264071817056</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1096894999.315041</v>
+        <v>1391748202.017399</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08854822069627438</v>
+        <v>0.0824239245008004</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02123339789472779</v>
+        <v>0.02843376701098698</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>876207604.669091</v>
+        <v>1322476398.141227</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1069300139737296</v>
+        <v>0.09204790895277359</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03708102857053043</v>
+        <v>0.03417584952700167</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2845183041.587637</v>
+        <v>2580787820.008464</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1653085291300526</v>
+        <v>0.1746210476537843</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0230262843716826</v>
+        <v>0.01967742006429216</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2029318058.67658</v>
+        <v>2767471855.227684</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09057327988125043</v>
+        <v>0.0915642386861607</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02643268608082399</v>
+        <v>0.03229230961580361</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1591446896.554156</v>
+        <v>2008845320.527906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09081059618789106</v>
+        <v>0.1103220817166461</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02966170679675992</v>
+        <v>0.02467233980891089</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1534688494.327617</v>
+        <v>1867687569.630032</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1278346198424988</v>
+        <v>0.1308289536717027</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02399261562312933</v>
+        <v>0.0199434245769984</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1299748327.057819</v>
+        <v>1430884607.721158</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1591138577981366</v>
+        <v>0.1172250606085212</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04911342176247948</v>
+        <v>0.05475898204895338</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2713817634.353758</v>
+        <v>2674753616.43551</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1198022665660534</v>
+        <v>0.1217776672686385</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04072874560040173</v>
+        <v>0.03360871976936406</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4360910610.115413</v>
+        <v>3962653527.581674</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1065984003227441</v>
+        <v>0.1008775914988934</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03491472419479827</v>
+        <v>0.04166766274075157</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>56</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2644390151.534769</v>
+        <v>2407381665.368751</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1481994881623224</v>
+        <v>0.1335880347336714</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02573634605231933</v>
+        <v>0.02557783215024195</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1908466322.758213</v>
+        <v>1847676137.266373</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06756877165691179</v>
+        <v>0.09792236650347697</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03451156740409943</v>
+        <v>0.02557092415692163</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2546332922.774449</v>
+        <v>2048893247.787802</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1659178084380778</v>
+        <v>0.1404299630424488</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03989688456908912</v>
+        <v>0.04164268684752466</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3845196574.581643</v>
+        <v>4513327838.842734</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1436970355219746</v>
+        <v>0.1660010318234589</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03845927176961978</v>
+        <v>0.0579449699033661</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="n">
+        <v>56</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4535682994.73461</v>
+        <v>5049786334.187022</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1410113206187968</v>
+        <v>0.1262213627451136</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0497102368778999</v>
+        <v>0.04265109341021547</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>55</v>
+      </c>
+      <c r="K47" t="n">
+        <v>170.8445134491269</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4645870353.012685</v>
+        <v>4021381119.003707</v>
       </c>
       <c r="F48" t="n">
-        <v>0.068256114392427</v>
+        <v>0.09807071473622286</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02496899533559195</v>
+        <v>0.03457674049120987</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>19</v>
+      </c>
+      <c r="J48" t="n">
+        <v>55</v>
+      </c>
+      <c r="K48" t="n">
+        <v>197.9177607241079</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1609089401.34376</v>
+        <v>1624612297.134901</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1883061614348106</v>
+        <v>0.1660474858346023</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03690736129853321</v>
+        <v>0.0300460397486507</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3358629208.447667</v>
+        <v>3495430988.153101</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1422571872496314</v>
+        <v>0.1666615792699521</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04634414448605012</v>
+        <v>0.03999832471879377</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>19</v>
+      </c>
+      <c r="J50" t="n">
+        <v>55</v>
+      </c>
+      <c r="K50" t="n">
+        <v>150.9154921632355</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1388315961.271384</v>
+        <v>1235409504.093638</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1944108997307433</v>
+        <v>0.1547000930252714</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04898573122925805</v>
+        <v>0.04659822766546413</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4055905240.320529</v>
+        <v>4605484053.189441</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1202946766589717</v>
+        <v>0.1033702174559502</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04224259147449801</v>
+        <v>0.05535954782591348</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>44</v>
+      </c>
+      <c r="J52" t="n">
+        <v>56</v>
+      </c>
+      <c r="K52" t="n">
+        <v>210.9315722024394</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2306,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3081206789.607916</v>
+        <v>3472003374.770474</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1679426906045805</v>
+        <v>0.1897648522505244</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02891436729228266</v>
+        <v>0.02656286693842717</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55</v>
+      </c>
+      <c r="K53" t="n">
+        <v>137.6607915810594</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4680046433.803741</v>
+        <v>4889073333.991258</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1547412418317045</v>
+        <v>0.1465981366892705</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03987418236411194</v>
+        <v>0.04292818090567214</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>56</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4557531841.76195</v>
+        <v>4044167539.278773</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1408784649632528</v>
+        <v>0.2196621566562079</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02922542504682488</v>
+        <v>0.02019254255529218</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>56</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1254976899.301194</v>
+        <v>1448912985.608734</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1469028030573235</v>
+        <v>0.1139434821379602</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05432982713654872</v>
+        <v>0.05440723261971682</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4006725594.065099</v>
+        <v>3461571077.744291</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1169458242893047</v>
+        <v>0.13317650640658</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02532116938879967</v>
+        <v>0.02150322927986313</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>56</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1515120656.935493</v>
+        <v>1615807527.129518</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2018616353554315</v>
+        <v>0.1324455512540232</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03066371331457542</v>
+        <v>0.03083445651022551</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4583035300.741091</v>
+        <v>3395647655.493421</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1011259642554671</v>
+        <v>0.0983848733318007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03068375255181285</v>
+        <v>0.03208187942960553</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="n">
+        <v>55</v>
+      </c>
+      <c r="K59" t="n">
+        <v>125.2542256241589</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3562091595.041303</v>
+        <v>2595629205.953903</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2052045736529344</v>
+        <v>0.1688886120132005</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02996764380620031</v>
+        <v>0.02438351421707854</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2863407239.245622</v>
+        <v>3352002909.700678</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16240179412278</v>
+        <v>0.1499274168070103</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02765771705990424</v>
+        <v>0.02984666087940678</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1355183893.37411</v>
+        <v>1830278527.806311</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1739965619856131</v>
+        <v>0.1231658039376146</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03436687742875662</v>
+        <v>0.03244594890249699</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4516931286.027096</v>
+        <v>4059380273.72006</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09762115826743681</v>
+        <v>0.08072222049250775</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03319009391654006</v>
+        <v>0.03490426557662275</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="n">
+        <v>56</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5340594710.548004</v>
+        <v>4005780218.750534</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1725560664779758</v>
+        <v>0.172757251607937</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02809011104820983</v>
+        <v>0.02351107308717994</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>56</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4515400877.093076</v>
+        <v>4239687758.021172</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1525951389889094</v>
+        <v>0.1132678678968978</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0197495686836743</v>
+        <v>0.02103719088672448</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>45</v>
+      </c>
+      <c r="J65" t="n">
+        <v>55</v>
+      </c>
+      <c r="K65" t="n">
+        <v>201.5333702440755</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5212896366.847165</v>
+        <v>5706520884.484138</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1324926955470646</v>
+        <v>0.1304738836459441</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04181075504563275</v>
+        <v>0.03686079236014829</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>56</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2190026169.339619</v>
+        <v>3072747627.577749</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09072588865821121</v>
+        <v>0.0690344568470594</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04765375760640088</v>
+        <v>0.04599887443673546</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3868522703.069154</v>
+        <v>6046927087.343434</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1489692762491472</v>
+        <v>0.1513548424084488</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04054863420979934</v>
+        <v>0.03297646473013616</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>55</v>
+      </c>
+      <c r="K68" t="n">
+        <v>189.9556133441254</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1803052048.012146</v>
+        <v>2393456082.364866</v>
       </c>
       <c r="F69" t="n">
-        <v>0.144668871958519</v>
+        <v>0.1722592448236734</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05322074334896244</v>
+        <v>0.05219726639552731</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2683899625.999194</v>
+        <v>3310065374.487054</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07120201675892848</v>
+        <v>0.09623718064680506</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03612412032755007</v>
+        <v>0.03775290927134636</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>54</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4714844840.124871</v>
+        <v>4976762636.108463</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1430109600164496</v>
+        <v>0.1800498683595247</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02955306183476889</v>
+        <v>0.02392614462103633</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>45</v>
+      </c>
+      <c r="J71" t="n">
+        <v>56</v>
+      </c>
+      <c r="K71" t="n">
+        <v>203.0193339325402</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2158275652.484697</v>
+        <v>1559269327.167555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08598230139200791</v>
+        <v>0.08341831249353934</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04232029040237265</v>
+        <v>0.05251226776579416</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2294624915.945833</v>
+        <v>2488056441.190889</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0678611130764422</v>
+        <v>0.1061473874784862</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03932125047901962</v>
+        <v>0.05107851401332598</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4010311399.062029</v>
+        <v>2668906258.410428</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1608594783196867</v>
+        <v>0.1304196313945644</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02355258820310174</v>
+        <v>0.0240411097120303</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2387736480.404292</v>
+        <v>1574991533.443444</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1124682033940267</v>
+        <v>0.1488181944486376</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0334810470492131</v>
+        <v>0.02891761372076706</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5051826487.769863</v>
+        <v>4839495683.930541</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08015347825079921</v>
+        <v>0.1094835396766302</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03289716725535233</v>
+        <v>0.02268073190204659</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>26</v>
+      </c>
+      <c r="J76" t="n">
+        <v>55</v>
+      </c>
+      <c r="K76" t="n">
+        <v>163.1461089310392</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2055863627.887299</v>
+        <v>1507173979.402399</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1405992387330799</v>
+        <v>0.1525481202690638</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02631699038881657</v>
+        <v>0.02844599421620805</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3693344564.205883</v>
+        <v>3990069695.552032</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08731804774421915</v>
+        <v>0.11824426000282</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04503760429106746</v>
+        <v>0.04254366541044666</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>24</v>
+      </c>
+      <c r="J78" t="n">
+        <v>56</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1725278680.281391</v>
+        <v>1348652382.483044</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1673623055579621</v>
+        <v>0.11550636129809</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02929877927451022</v>
+        <v>0.03284865312285262</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4453598314.382865</v>
+        <v>4107335399.268497</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1009060366053046</v>
+        <v>0.09090464706053709</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03344885420288349</v>
+        <v>0.02374475365228396</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>27</v>
+      </c>
+      <c r="J80" t="n">
+        <v>55</v>
+      </c>
+      <c r="K80" t="n">
+        <v>159.0896606854508</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3364200089.919202</v>
+        <v>3660997564.337221</v>
       </c>
       <c r="F81" t="n">
-        <v>0.112158431164616</v>
+        <v>0.116804403481018</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02283326175962189</v>
+        <v>0.03031362739720637</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+      <c r="J81" t="n">
+        <v>55</v>
+      </c>
+      <c r="K81" t="n">
+        <v>133.4896382467392</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5481245617.707644</v>
+        <v>5679453582.586676</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1399690467919514</v>
+        <v>0.2063416346668302</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02142219762520677</v>
+        <v>0.01907361779866563</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>56</v>
+      </c>
+      <c r="K82" t="n">
+        <v>205.8370170088889</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1523230440.291532</v>
+        <v>2450869277.873896</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1156777059347026</v>
+        <v>0.1423271237251137</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04508574735833246</v>
+        <v>0.03552890224189736</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2478929776.668288</v>
+        <v>1836763871.816527</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1138796545016851</v>
+        <v>0.0952612839777026</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04401696876785218</v>
+        <v>0.03370422119626015</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3601410199.807944</v>
+        <v>2492711029.043477</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1378019077129642</v>
+        <v>0.1504582757732081</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0495046474494375</v>
+        <v>0.03974183429577402</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2596768241.047181</v>
+        <v>1804675699.51662</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1316007103077498</v>
+        <v>0.1526905074784237</v>
       </c>
       <c r="G86" t="n">
-        <v>0.017783943126968</v>
+        <v>0.0227035648358477</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1386667660.714782</v>
+        <v>1341376382.686551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1579050596536038</v>
+        <v>0.1226757275293234</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04245850738057234</v>
+        <v>0.02914827809335583</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3543,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2294661458.93093</v>
+        <v>3553190022.903728</v>
       </c>
       <c r="F88" t="n">
-        <v>0.144957971592494</v>
+        <v>0.1268451978265733</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03064321262547858</v>
+        <v>0.03636328696649131</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="n">
+        <v>164.6276714115172</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2355987149.420749</v>
+        <v>2275364753.040937</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1127944513032446</v>
+        <v>0.1464618840070253</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03409418427916509</v>
+        <v>0.03343886224305279</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1757097123.912222</v>
+        <v>1460299960.087031</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08950177291393341</v>
+        <v>0.1276335577089746</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05421916543863483</v>
+        <v>0.03517105751566874</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1370704333.622781</v>
+        <v>1440354439.170063</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1870811529840957</v>
+        <v>0.1425375642244478</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04142224271050865</v>
+        <v>0.04635848773665524</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2069429068.634128</v>
+        <v>2432999350.231396</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1097803380635063</v>
+        <v>0.08615154160051658</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0356278910194508</v>
+        <v>0.03234589515160784</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3331373031.735003</v>
+        <v>4223952611.121609</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1000859804940304</v>
+        <v>0.1421331527620504</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04872233127693764</v>
+        <v>0.05152369363795573</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>24</v>
+      </c>
+      <c r="J93" t="n">
+        <v>56</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2485125168.622017</v>
+        <v>2425236704.009602</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1427845703827043</v>
+        <v>0.1133370953947061</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03077201614164254</v>
+        <v>0.03996673896074867</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2750372626.466561</v>
+        <v>1992292933.466763</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08873125613974454</v>
+        <v>0.09182750610101433</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04962259979151295</v>
+        <v>0.03244580922947372</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1523554810.543662</v>
+        <v>1647889522.415509</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1195571511004597</v>
+        <v>0.1024768530321543</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04318193586810942</v>
+        <v>0.03140474248406876</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5176482758.586397</v>
+        <v>3526595467.472414</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1705241306800084</v>
+        <v>0.1553434028613702</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02898180645414247</v>
+        <v>0.02591530133287229</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="n">
+        <v>56</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3799511400.938754</v>
+        <v>2907880218.643459</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09593199676969608</v>
+        <v>0.08238042998919282</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02650067816792371</v>
+        <v>0.02235871646005571</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>52</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2863676144.445816</v>
+        <v>3235134118.274117</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1055990844943177</v>
+        <v>0.1446204193825387</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03354051046153439</v>
+        <v>0.02651958043345738</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3542850015.863234</v>
+        <v>3538497491.003304</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151297927083011</v>
+        <v>0.1636201564083467</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02545744240156358</v>
+        <v>0.02266622027568348</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24</v>
+      </c>
+      <c r="J100" t="n">
+        <v>56</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2650606250.595554</v>
+        <v>2918508484.067947</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1996377938078027</v>
+        <v>0.1732775096704906</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05146968168752214</v>
+        <v>0.05341296462110689</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
